--- a/plots/maps/geo_stats/museumsall_in_region_by_governance_simpl.xlsx
+++ b/plots/maps/geo_stats/museumsall_in_region_by_governance_simpl.xlsx
@@ -391,7 +391,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -411,7 +411,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="C37">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
